--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Solar Mingorria</t>
+          <t>Parque Solar Victoria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VASKAN SOLAR SPA</t>
+          <t>Solar Victoria Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2021</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152937573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155399010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Solar Mingorria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>VASKAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152937573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aumento Producción Planta Victoria</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1500</v>
+        <v>25000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13/06/2018</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139265832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Aumento Producción Planta Victoria</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9903</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>13/06/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139265832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta de Generación Eléctrica a partir de Biomasa de 20 MW Victoria</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Energías Victoria SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131510791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Eólico Victoria</t>
+          <t>Planta de Generación Eléctrica a partir de Biomasa de 20 MW Victoria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Eólico Victoria SPA</t>
+          <t>Energías Victoria SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>550000</v>
+        <v>45000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/04/2016</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131510791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta de Generación Eléctrica a partir de Biomasa de 20 MW Victoria</t>
+          <t>Parque Eólico Victoria</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Energías Victoria SpA</t>
+          <t>Parque Eólico Victoria SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>45000</v>
+        <v>550000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>20/04/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131169262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta de Generación Eléctrica a partir de Biomasa de 20 MW Victoria</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Energías Victoria SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131169262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/E Los Peumos 220/66 kV</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9509</v>
+        <v>5000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129925606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>S/E Los Peumos 220/66 kV</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6750</v>
+        <v>9509</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129925606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/E Los Peumos 220/66 kV</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRANSNET S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9509</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129886272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>S/E Los Peumos 220/66 kV</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSNET S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>9509</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>21/10/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129886272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto de Optimización y Ampliación Etapa Cierre Progresivo Vertedero Victoria</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Victoria</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1852</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129344356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto de Optimización y Ampliación Etapa Cierre Progresivo Vertedero Victoria</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Ilustre Municipalidad de Victoria</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1200</v>
+        <v>1852</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129344356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>2475</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Inmoviliario Proyecto inmobiliario Victoria</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Constructora Peña y Peña Ltda.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>32000</v>
+        <v>319</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6041510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental Subestación Pua</t>
+          <t>Proyecto Inmoviliario Proyecto inmobiliario Victoria</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CODINER LTDA.</t>
+          <t>Constructora Peña y Peña Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/09/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6035947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6041510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Declaración de impacto ambiental Subestación Pua</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CODINER LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>13/09/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6035947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro de Régimen Cerrado de Victoria</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ministerio de Justicia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA TOHÁ ® O LOMBRIFILTRO PARA PLANTA QUILLAYES VICTORIA,</t>
+          <t>Centro de Régimen Cerrado de Victoria</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Agrícola Lechera Quillayes de Peteroa Ltda</t>
+          <t>Ministerio de Justicia</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>360</v>
+        <v>11000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2010</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5051566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA TOHÁ ® O LOMBRIFILTRO PARA PLANTA QUILLAYES VICTORIA,</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Compañía Agrícola Lechera Quillayes de Peteroa Ltda</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/11/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5051566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Proyecto de Cierre Vertedero de Victoria (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Victoria</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1206</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>26/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4126291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Proyecto de Cierre Vertedero de Victoria (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Victoria</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>377</v>
+        <v>1206</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>26/10/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4126291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aumento Potencia Central Pelohuen (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PSEG Generación y Energía Chile Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4613</v>
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811855&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Aumento Potencia Central Pelohuen (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>PSEG Generación y Energía Chile Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>4613</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811855&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DEL PROYECTO RESIDUOS INDUSTRIALES LÍQUIDOS PARA LA PLANTA VIALAT VICTORIA, IX REGIÓN (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Roberto Urenda Gómez</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2585255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ajuste de Trazado Vértices V17B PR3 Línea de Transmisión Charrúa Nueva Temuco 2 x 220 kV (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DEL PROYECTO RESIDUOS INDUSTRIALES LÍQUIDOS PARA LA PLANTA VIALAT VICTORIA, IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Roberto Urenda Gómez</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2500</v>
+        <v>262</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/11/2007</t>
+          <t>21/12/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2585255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Ajuste de Trazado Vértices V17B PR3 Línea de Transmisión Charrúa Nueva Temuco 2 x 220 kV (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>429</v>
+        <v>2500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>22/11/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Estación de servicio YPF KM 614,4 - Ruta 5 sur - Tramo Collipulli Temuco (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Petroleos Transandinos SA.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2163555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Estación de servicio YPF KM 614,4 - Ruta 5 sur - Tramo Collipulli Temuco (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Petroleos Transandinos SA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2163555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE VICTORIA (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Victoria</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,30 +5224,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>PLAN REGULADOR COMUNAL DE VICTORIA (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Ilustre Municipalidad de Victoria</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>64655</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,12 +5272,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,12 +5560,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Regularización Planta Aserradero Victoria S.A. (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,20 +5810,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Aserradero Voctoria S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>820</v>
+        <v>160</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>02/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Regularización Planta Aserradero Victoria S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,20 +5858,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Aserradero Voctoria S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>02/11/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Vialat Victoria, IX Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>VIALAT S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=613556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Vialat Victoria, IX Región (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>VIALAT S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=613556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,40 +6616,40 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Canal Victoria</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>70000</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Estación de Servicio Victoria - Av. OHiggins</t>
+          <t>Canal Victoria</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Jaime Antonio Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>70000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>31/05/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio Victoria - Av. OHiggins</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Transportes Jaime Antonio Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Embalse Fundo San Vicente</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jacinto Pérez Quintas</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>17/06/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Embalse Fundo San Vicente</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Jacinto Pérez Quintas</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>17/06/1999</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Domiciliarias - Localidad de Quino</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Victoria</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Domiciliarias - Localidad de Púa</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Domiciliarias - Localidad de Quino</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Subestación Victoria</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Domiciliarias - Localidad de Púa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>I. Municipalidad de Victoria</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6975,17 +6975,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>28/08/1998</t>
+          <t>31/12/1998</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131920885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Victoria</t>
+          <t>Subestación Victoria</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>28/08/1998</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131920885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,43 +7048,91 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas de Victoria</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Aguas Araucanía S.A</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1223&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>Oleoducto San Vicente-Temuco</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
-      <c r="F140" t="n">
+      <c r="F141" t="n">
         <v>47000</v>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>19/05/1997</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>Victoria</t>
         </is>

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F139" t="n">

--- a/data/Victoria.xlsx
+++ b/data/Victoria.xlsx
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
